--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA452F-7845-4A75-90E3-2C9C12BA5F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C988D4-BCB8-44FC-A30F-500FAA658E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="2340" yWindow="180" windowWidth="24375" windowHeight="15225" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Const" sheetId="1" r:id="rId1"/>
+    <sheet name="#Const" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,7 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,18 +128,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,30 +481,33 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>20</v>
       </c>
     </row>

--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C988D4-BCB8-44FC-A30F-500FAA658E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AD804-74A8-4D25-AE6B-17801AC2E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="180" windowWidth="24375" windowHeight="15225" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="#Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageUsePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,15 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
+    <col min="1" max="1" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,6 +514,17 @@
       </c>
       <c r="C2" s="4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AD804-74A8-4D25-AE6B-17801AC2E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D7BA1C-D3C4-459D-957C-F58E5DDEB1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="15150" yWindow="2160" windowWidth="11100" windowHeight="11925" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="#Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>StageUsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defensive const</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -490,7 +494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -527,6 +531,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D7BA1C-D3C4-459D-957C-F58E5DDEB1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E68BD3-9292-4373-9748-C0032F0E8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="2160" windowWidth="11100" windowHeight="11925" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="#Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,7 +62,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defensive const</t>
+    <t>SponDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefensiveConst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,13 +541,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E68BD3-9292-4373-9748-C0032F0E8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB54C07-3A86-4AB7-B750-5CC55135FEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="29655" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="#Const" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SponDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DefensiveConst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePointKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFF055-8921-4CB3-91F1-279CE5A55C45}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,45 +527,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.2</v>
       </c>
     </row>

--- a/XLSX/ConstTable.xlsx
+++ b/XLSX/ConstTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB54C07-3A86-4AB7-B750-5CC55135FEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2ACD3-B304-4E07-B711-75D12A738C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2B4E6A52-5E8C-4CE4-8C0D-3F74184D4DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="#Const" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,10 +582,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>0.2</v>
